--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="67">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,36 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20230823_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20230704_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.NK 16" 모델 대응을 위한 Pixel Overlap 옵션 추가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 주의 : Pixel Overlap 기능은 Firmware 버전 2024-07-10 이후 버전과 같이 적용되어야 동작함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Overlap On/Off 오동작 문제점 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20230712_R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +333,14 @@
       <strike/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -850,6 +888,49 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5914160</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6257146</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>329045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9646228" y="11785021"/>
+          <a:ext cx="342986" cy="251115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1119,10 +1200,10 @@
   <dimension ref="B1:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2154,29 +2235,61 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="1"/>
+    <row r="38" spans="2:11" ht="32.25" customHeight="1">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="5">
+        <v>45477</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J38" s="7"/>
-      <c r="K38" s="6"/>
+      <c r="K38" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="5">
+        <v>45485</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J39" s="7"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" spans="2:11" ht="24.75" customHeight="1">
       <c r="B40" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,16 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20230712_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20230722_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. LVDS FPGA, DP FPGA 버전 정보가 같은 버전값으로 표시되는 문제점 수정
+ - Signal Type이 LVDS이면 LVDS FPGA에만, DP이면 DP FPGA에만 버전정보 표시.
+ - Signal Type 설정에 따라 FPGA Module 전원 차단되기 때문에 둘다 동시에 표시하는 기능은 지원 불가.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,11 +1209,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2291,17 +2301,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="1"/>
+    <row r="40" spans="2:11" ht="47.25" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="5">
+        <v>45495</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="8"/>
+      <c r="I40" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J40" s="7"/>
-      <c r="K40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="24.75" customHeight="1">
       <c r="B41" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="71">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20230823_R1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIE_BoadAssy_20230704_R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,17 +278,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIE_BoadAssy_20230712_R1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIE_BoadAssy_20230722_R1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. LVDS FPGA, DP FPGA 버전 정보가 같은 버전값으로 표시되는 문제점 수정
  - Signal Type이 LVDS이면 LVDS FPGA에만, DP이면 DP FPGA에만 버전정보 표시.
  - Signal Type 설정에 따라 FPGA Module 전원 차단되기 때문에 둘다 동시에 표시하는 기능은 지원 불가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Model Pattern 세팅이 "Power" 항목 추가
+ - Power 설정이 ON 일 경우 Power Measure 후  Summary Log에 VCC, ICC 값 기록하도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20240704_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20240712_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20240722_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20240801_R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +907,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>5914160</xdr:colOff>
@@ -928,6 +937,49 @@
         <a:xfrm>
           <a:off x="9646228" y="11785021"/>
           <a:ext cx="342986" cy="251115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5792466</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6398402</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>352426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9526266" y="13249276"/>
+          <a:ext cx="605936" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1210,10 +1262,10 @@
   <dimension ref="B1:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2262,7 +2314,7 @@
         <v>45477</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
@@ -2270,7 +2322,7 @@
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="24.75" customHeight="1">
@@ -2290,7 +2342,7 @@
         <v>45485</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
@@ -2298,7 +2350,7 @@
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="47.25" customHeight="1">
@@ -2318,7 +2370,7 @@
         <v>45495</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
@@ -2326,20 +2378,36 @@
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="33" customHeight="1">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="5">
+        <v>45505</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="24.75" customHeight="1">
       <c r="B42" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20240801_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20240920_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 9.9", 17" 모델 대응을 위한 PWM Setting 기능 추가
+ - Power Sequence에 PWM 항목 추가 및 PWM Freq, PWM Duty 설정 UI 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,10 +1271,10 @@
   <dimension ref="B1:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2409,17 +2418,33 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="7"/>
+    <row r="42" spans="2:11" ht="34.5" customHeight="1">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="5">
+        <v>45555</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="I42" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J42" s="7"/>
-      <c r="K42" s="6"/>
+      <c r="K42" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="43" spans="2:11" ht="24.75" customHeight="1">
       <c r="B43" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,15 @@
   <si>
     <t>1. 9.9", 17" 모델 대응을 위한 PWM Setting 기능 추가
  - Power Sequence에 PWM 항목 추가 및 PWM Freq, PWM Duty 설정 UI 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 모델 Fusing 시 사용하지 않는 IGH, IGL 전류 High Limit 값 99A로 설정되도록 수정
+ - High Limit 값이 0으로 설정될 경우 Limit NG 발생하는 현상 수정을 위함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20250117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1283,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2446,17 +2455,33 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="1"/>
+    <row r="43" spans="2:11" ht="34.5" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="5">
+        <v>45674</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J43" s="7"/>
-      <c r="K43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="24.75" customHeight="1">
       <c r="B44" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="77">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20250117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20250120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Summary Log 기록후 초기화 하도록 수정 (M/C전 Model의 Pattern List가 기록되는 현상 수정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,7 +1291,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2484,16 +2492,32 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="7"/>
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="5">
+        <v>45677</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="I44" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J44" s="7"/>
-      <c r="K44" s="6"/>
+      <c r="K44" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="45" spans="2:11" ht="24.75" customHeight="1">
       <c r="B45" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="81">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,21 @@
   </si>
   <si>
     <t>1. Summary Log 기록후 초기화 하도록 수정 (M/C전 Model의 Pattern List가 기록되는 현상 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 20.5인치 모델 대응 Pixel Type "TRIPLE" 추가</t>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20250522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. System 메뉴에 Debug MLog 옵션 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20250701</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1288,10 +1303,10 @@
   <dimension ref="B1:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2520,28 +2535,60 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="7"/>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="5">
+        <v>45799</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="I45" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J45" s="7"/>
-      <c r="K45" s="6"/>
+      <c r="K45" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="46" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="7"/>
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5">
+        <v>45839</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J46" s="7"/>
-      <c r="K46" s="6"/>
+      <c r="K46" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="2:11" ht="24.75" customHeight="1">
       <c r="B47" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="84">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,7 +342,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIE_BoadAssy_20250701</t>
+    <t>1. Pattern 검사 시 Pattern별 설정된 VCC 값 세팅 동작하도록 수정</t>
+  </si>
+  <si>
+    <t>2. UDP 통신 Receive 값 MLog 기록하도록 수정</t>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20250701_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20250710_R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,7 +1316,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,7 +1331,7 @@
     <col min="8" max="8" width="19.5" style="12" customWidth="1"/>
     <col min="9" max="9" width="21.125" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="22.875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="25.75" style="12" customWidth="1"/>
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -2587,32 +2597,64 @@
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="24.75" customHeight="1">
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="5">
+        <v>45848</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="7"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J47" s="7"/>
-      <c r="K47" s="6"/>
+      <c r="K47" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="48" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="7"/>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="5">
+        <v>45848</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J48" s="7"/>
-      <c r="K48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="49" spans="2:11" ht="24.75" customHeight="1">
       <c r="B49" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="86">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,12 +355,19 @@
     <t>GIE_BoadAssy_20250710_R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. Pattern 검사 시 Pattern별 설정된 VCC 값 동작하지 않도록 원복</t>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20250714_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +420,15 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -516,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,7 +1335,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2616,7 +2635,7 @@
       <c r="F47" s="5">
         <v>45848</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="37" t="s">
         <v>80</v>
       </c>
       <c r="H47" s="6"/>
@@ -2657,16 +2676,32 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="7"/>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="5">
+        <v>45852</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J49" s="7"/>
-      <c r="K49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="50" spans="2:11" ht="24.75" customHeight="1">
       <c r="B50" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="88">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,13 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20250714_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ID BCR 입력 시 모델별 PID, SERIAL NO, PCB ID 선택하여 입력받을 수 있도록 수정</t>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20251015_R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,6 +1070,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5876926</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6391276</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>263216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610726" y="16354426"/>
+          <a:ext cx="514350" cy="196540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1335,7 +1385,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2704,16 +2754,32 @@
       </c>
     </row>
     <row r="50" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="9">
+        <v>45945</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="8"/>
+      <c r="I50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J50" s="7"/>
-      <c r="K50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="51" spans="2:11" ht="24.75" customHeight="1">
       <c r="B51" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="90">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,13 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20251015_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PLC에서 전달받는 ID값을  모델설정에 정의된 ID Input Type 값에 자동 설정되도록 수정</t>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20251016_R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1392,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2782,16 +2789,32 @@
       </c>
     </row>
     <row r="51" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="9">
+        <v>45946</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="8"/>
+      <c r="I51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J51" s="7"/>
-      <c r="K51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" customHeight="1">
       <c r="B52" s="6"/>

--- a/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
+++ b/(VH)H1 NK향 BA검사기 SW 수정 History.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="94">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,21 @@
   </si>
   <si>
     <t>GIE_BoadAssy_20251016_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Summalry Log의 Panel ID 위치에 입력받은 ID를 그대로 기록하도록 수정</t>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20251017_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIE_BoadAssy_20251017_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PLC에서 PCB ID를 전달받았을 경우 수동 BCR 입력창 출력되지 않도록 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1392,7 +1407,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2817,28 +2832,60 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="9">
+        <v>45947</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J52" s="7"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="2:11" ht="24.75" customHeight="1">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="7"/>
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="9">
+        <v>45947</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J53" s="7"/>
-      <c r="K53" s="6"/>
+      <c r="K53" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="54" spans="2:11" ht="24.75" customHeight="1">
       <c r="B54" s="6"/>
